--- a/biology/Zoologie/Tom_Iredale/Tom_Iredale.xlsx
+++ b/biology/Zoologie/Tom_Iredale/Tom_Iredale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tom Iredale est un ornithologue et un malacologiste britannique. Il est né le 24 mars 1880 à Stainburn, Workington dans le Cumberland et mort le 12 avril 1972.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence une formation de pharmacien (1899-1901) mais il doit quitter l'Angleterre pour des raisons de santé, il souffre de tuberculose. Il devient clerc pour une société néo-zélandaise basée à Christchurch de 1902 à 1907. Cet autodidacte n'a jamais fréquenté l'université, aussi manque-t-il d'une formation traditionnelle. Ceci explique sans doute qu'il ne révise jamais ses manuscrits ou n'utilise pas de machine à écrire.
 En 1908, il passe dix mois sur les lointaines îles Kermadec, au nord-est de la Nouvelle-Zélande. Il y étudie les oiseaux et devient bientôt un ornithologue réputé par le simple fait de vivre en présence de milliers d'entre eux. Il vit en chassant et en mangeant l'objet de ses études. C'est la récolte des mollusques de l'île qu'il commence à s'intéresser à leur étude. Ce séjour marque un tournant dans sa vie.
@@ -549,7 +563,9 @@
           <t>Sélection d'œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Iredale, T., 'Solander as an Ornithologist' Ibis, 1913, pp. 127-135
 Iredale, T., 'John Brazier 1842-1930', Nautilus, vol. 44, 1931
